--- a/data/trans_dic/P23_11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_11_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>4,63%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,55</t>
+          <t>0,0; 7,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,0</t>
+          <t>0,71; 11,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,71</t>
+          <t>3,47; 18,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,68</t>
+          <t>1,46; 18,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,15</t>
+          <t>1,52; 16,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,68</t>
+          <t>1,32; 15,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,77</t>
+          <t>1,68; 10,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 10,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 9,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 11,7</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,6</t>
+          <t>0,54; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,22</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 13,45</t>
+          <t>1,1; 25,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,1</t>
+          <t>0,45; 4,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,03</t>
+          <t>4,69; 13,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,73</t>
+          <t>4,1; 11,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,27</t>
+          <t>3,51; 11,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,79</t>
+          <t>2,15; 9,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 10,23</t>
+          <t>2,95; 7,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 6,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 15,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 6,23</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,36</t>
+          <t>0,64; 6,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,11</t>
+          <t>0,7; 6,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 12,12</t>
+          <t>2,17; 15,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,13</t>
+          <t>1,84; 13,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,59</t>
+          <t>2,19; 8,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,73</t>
+          <t>1,13; 7,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,01</t>
+          <t>2,19; 8,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,85</t>
+          <t>2,25; 9,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,93</t>
+          <t>1,97; 6,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 5,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 9,72</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 9,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 3,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 3,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 17,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 6,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 9,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 8,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 8,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 7,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 6,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 5,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 10,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 6,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,19%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6784</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11323</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6602</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6807</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11323</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8171</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8377</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18055</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6974</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6756</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1214; 19494</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4257; 22263</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1499; 18964</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1661; 17695</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2510; 28959</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4099; 26855</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2341; 21474</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1939; 20622</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7449; 42293</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7666</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25765</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7938</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34997</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26065</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23746</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42663</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30645</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49511</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31420</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2240; 20696</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15490</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4201; 96531</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2191; 23232</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20680; 57769</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14759; 41892</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12622; 41018</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10231; 44788</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25246; 66986</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18018; 49217</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24211; 118035</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16687; 59697</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7141</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6024</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18254</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19032</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9955</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14116</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18295</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26173</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15979</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29470</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36549</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1991; 18957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1860; 18323</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5602; 41106</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6450; 48788</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8858; 35524</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3643; 25490</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6875; 27200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8796; 35300</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14072; 46894</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8038; 32103</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17207; 55582</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20024; 74072</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14807</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12173</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42690</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32977</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65352</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42622</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44669</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>53048</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>80159</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>54795</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>87359</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>86025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5178; 29879</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4336; 26591</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16415; 128415</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17615; 69308</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>45119; 92167</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27222; 62756</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28847; 66139</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33486; 81651</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>55406; 109281</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>36807; 80295</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>57200; 166859</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>56843; 126769</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
